--- a/NEW HR/ALERA, JEFFREY BENSON.xlsx
+++ b/NEW HR/ALERA, JEFFREY BENSON.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>11/1,22,23/2023</t>
+  </si>
+  <si>
+    <t>12/23,26/2023</t>
+  </si>
+  <si>
+    <t>12/02,09,12/2023</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1227,12 +1233,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A5" activePane="bottomLeft"/>
-      <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A11" activePane="bottomLeft"/>
+      <selection activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1405,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.9169999999999998</v>
+        <v>11.167</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1409,7 +1415,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.9169999999999998</v>
+        <v>3.1669999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1701,13 +1707,15 @@
         <v>45291</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="37"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="9"/>
@@ -1736,7 +1744,9 @@
       <c r="A25" s="38">
         <v>45322</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="37"/>
       <c r="E25" s="9"/>
@@ -1745,16 +1755,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="37">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>45351</v>
-      </c>
-      <c r="B26" s="20"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="37"/>
       <c r="E26" s="9"/>
@@ -1763,14 +1777,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="37">
+        <v>3</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -1788,7 +1806,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -1806,7 +1824,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1824,7 +1842,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1842,7 +1860,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1860,7 +1878,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1878,7 +1896,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1896,7 +1914,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1914,7 +1932,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1932,7 +1950,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1949,8 +1967,8 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>55</v>
+      <c r="A37" s="38">
+        <v>45657</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -1967,8 +1985,8 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
-        <v>45688</v>
+      <c r="A38" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -1986,7 +2004,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2003,7 +2021,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="38">
+        <v>45716</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="37"/>
@@ -3491,20 +3511,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="41"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="37"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
+      <c r="F133" s="20"/>
       <c r="G133" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="41"/>
+      <c r="H133" s="37"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="39"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="41"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/ALERA, JEFFREY BENSON.xlsx
+++ b/NEW HR/ALERA, JEFFREY BENSON.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>12/02,09,12/2023</t>
+  </si>
+  <si>
+    <t>01/23,28,31/2024</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1408,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.167</v>
+        <v>12.417</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1415,7 +1418,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.1669999999999998</v>
+        <v>1.4169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1747,13 +1750,15 @@
       <c r="B25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="37"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="37">
         <v>2</v>
@@ -1790,7 +1795,9 @@
       <c r="A27" s="38">
         <v>45351</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="37"/>
       <c r="E27" s="9"/>
@@ -1799,10 +1806,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="37">
+        <v>3</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
